--- a/results/rest_tab.xlsx
+++ b/results/rest_tab.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>目的基因</t>
   </si>
@@ -38,7 +38,16 @@
     <t>significance</t>
   </si>
   <si>
-    <t>A</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>CK</t>
@@ -50,10 +59,7 @@
     <t>处理2</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -135,25 +141,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4716067251300378</v>
+        <v>0.6795293762412207</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1387493545461103</v>
+        <v>1.1834764704219096</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5397356974984359</v>
+        <v>0.8220173526351533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.17991189916614528</v>
+        <v>0.2740057842117178</v>
       </c>
       <c r="G2" t="n">
-        <v>0.014831320733626292</v>
+        <v>0.18423969107383334</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -161,25 +167,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1262786492320693</v>
+        <v>0.8878797451073321</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6991453395442444</v>
+        <v>0.6426424349333535</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9944427313804367</v>
+        <v>0.5495399538414163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6648142437934789</v>
+        <v>0.18317998461380544</v>
       </c>
       <c r="G3" t="n">
-        <v>0.014831320733626292</v>
+        <v>0.18423969107383334</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -187,25 +193,259 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6157484283845406</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1933441896513377</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.705979611901638</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.235326537300546</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.18423969107383334</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.6240398739198905</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0750672764891176</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5094065572190913</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1698021857396971</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.014831320733626292</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B11" t="s">
         <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.382696706677091</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
